--- a/miniproject/template/Lectures/Lecture 8.xlsx
+++ b/miniproject/template/Lectures/Lecture 8.xlsx
@@ -37,10 +37,10 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Meaning （English）</t>
-  </si>
-  <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Meaning（中文）</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1873,12 +1873,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1914,29 +1914,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1951,7 +1937,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1966,7 +2029,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,14 +2038,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2004,70 +2059,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2092,6 +2086,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2104,19 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,13 +2122,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,49 +2206,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,73 +2236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,6 +2310,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2327,6 +2339,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2360,204 +2407,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2586,7 +2580,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2910,8 +2904,8 @@
   <sheetPr/>
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/miniproject/template/Lectures/Lecture 8.xlsx
+++ b/miniproject/template/Lectures/Lecture 8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1873,10 +1873,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1915,9 +1915,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1929,22 +1965,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1976,68 +2022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2059,7 +2044,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2086,7 +2086,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,55 +2230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,49 +2242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,61 +2260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,39 +2313,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2369,11 +2336,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2389,6 +2363,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2410,148 +2410,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2905,7 +2905,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/miniproject/template/Lectures/Lecture 8.xlsx
+++ b/miniproject/template/Lectures/Lecture 8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版 final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0101C-2E75-4193-8EE1-07E55E137D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5642A4E-AE7B-433C-B6A8-E65E5D0D248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Suck it up</t>
   </si>
   <si>
-    <t>America’s foreign wars sucked the energy out of its economy</t>
-  </si>
-  <si>
     <t>美国的对外战争消耗了其经济的能量</t>
   </si>
   <si>
@@ -1970,6 +1967,9 @@
   </si>
   <si>
     <t>I can't seem to shake off this cold</t>
+  </si>
+  <si>
+    <t>America's foreign wars sucked the energy out of its economy</t>
   </si>
 </sst>
 </file>
@@ -2495,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
@@ -2525,10 +2525,10 @@
   <sheetData>
     <row r="1" spans="1:28" s="16" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>574</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -2540,58 +2540,58 @@
         <v>2</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -2604,26 +2604,26 @@
         <v>8</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="J2" s="19">
         <v>0</v>
@@ -2682,26 +2682,26 @@
         <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="J3" s="19">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
@@ -2770,16 +2770,16 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="J4" s="19">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -2848,13 +2848,13 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
@@ -2887,7 +2887,7 @@
         <v>L30801004</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S5" s="20" t="str">
         <f t="shared" si="4"/>
@@ -2915,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -2925,16 +2925,16 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="J6" s="19">
         <v>0</v>
@@ -2993,23 +2993,23 @@
         <v>8</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -3071,26 +3071,26 @@
         <v>8</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="J8" s="19">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
@@ -3159,16 +3159,16 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J9" s="19">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
@@ -3237,16 +3237,16 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="J10" s="19">
         <v>1</v>
@@ -3305,20 +3305,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
@@ -3383,23 +3383,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>19</v>
@@ -3461,7 +3461,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -3471,16 +3471,16 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="J13" s="19">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
@@ -3549,16 +3549,16 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="J14" s="19">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
@@ -3627,16 +3627,16 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="J15" s="19">
         <v>1</v>
@@ -3695,17 +3695,17 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -3714,7 +3714,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J16" s="19">
         <v>1</v>
@@ -3773,26 +3773,26 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J17" s="19">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -3861,16 +3861,16 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="J18" s="19">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>4</v>
@@ -3939,16 +3939,16 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="J19" s="19">
         <v>0</v>
@@ -4007,26 +4007,26 @@
         <v>8</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="J20" s="19">
         <v>1</v>
@@ -4085,23 +4085,23 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -4163,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
@@ -4173,16 +4173,16 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
@@ -4251,10 +4251,10 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -4319,7 +4319,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
@@ -4329,16 +4329,16 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="J24" s="19">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
@@ -4407,16 +4407,16 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="J25" s="19">
         <v>0</v>
@@ -4475,26 +4475,26 @@
         <v>8</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="J26" s="19">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>4</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>38</v>
@@ -4572,7 +4572,7 @@
         <v>39</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J27" s="19">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>4</v>
@@ -4641,16 +4641,16 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="J28" s="19">
         <v>1</v>
@@ -4709,26 +4709,26 @@
         <v>8</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="J29" s="19">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>4</v>
@@ -4797,16 +4797,16 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="J30" s="19">
         <v>1</v>
@@ -4865,26 +4865,26 @@
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="J31" s="19">
         <v>1</v>
@@ -4943,17 +4943,17 @@
         <v>8</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>44</v>
@@ -4962,7 +4962,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J32" s="19">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>4</v>
@@ -5031,16 +5031,16 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="J33" s="19">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>4</v>
@@ -5109,16 +5109,16 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="J34" s="19">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>4</v>
@@ -5187,16 +5187,16 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="J35" s="19">
         <v>1</v>
@@ -5255,26 +5255,26 @@
         <v>8</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>4</v>
@@ -5343,16 +5343,16 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="J37" s="19">
         <v>0</v>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="R37" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>What is the meaning of "America’s foreign wars sucked the energy out of its economy"?</v>
+        <v>What is the meaning of "America's foreign wars sucked the energy out of its economy"?</v>
       </c>
       <c r="S37" s="20" t="str">
         <f t="shared" si="4"/>
@@ -5411,7 +5411,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
@@ -5421,16 +5421,16 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="J38" s="19">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>4</v>
@@ -5499,16 +5499,16 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J39" s="19">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>4</v>
@@ -5577,16 +5577,16 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J40" s="19">
         <v>0</v>
@@ -5645,26 +5645,26 @@
         <v>8</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J41" s="19">
         <v>0</v>
@@ -5723,26 +5723,26 @@
         <v>8</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J42" s="19">
         <v>0</v>
@@ -5801,26 +5801,26 @@
         <v>8</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J43" s="19">
         <v>0</v>
@@ -5879,26 +5879,26 @@
         <v>8</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J44" s="19">
         <v>0</v>
@@ -5957,26 +5957,26 @@
         <v>8</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J45" s="19">
         <v>0</v>
@@ -6035,26 +6035,26 @@
         <v>8</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="J46" s="19">
         <v>0</v>
@@ -6113,26 +6113,26 @@
         <v>8</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J47" s="19">
         <v>0</v>
@@ -6191,26 +6191,26 @@
         <v>8</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="J48" s="19">
         <v>0</v>
@@ -6269,26 +6269,26 @@
         <v>8</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="J49" s="19">
         <v>0</v>
@@ -6347,26 +6347,26 @@
         <v>8</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="J50" s="19">
         <v>1</v>
@@ -6425,26 +6425,26 @@
         <v>8</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="J51" s="19">
         <v>1</v>
@@ -6503,26 +6503,26 @@
         <v>8</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="J52" s="19">
         <v>1</v>
@@ -6581,26 +6581,26 @@
         <v>8</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="J53" s="19">
         <v>1</v>
@@ -6659,26 +6659,26 @@
         <v>8</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="J54" s="19">
         <v>1</v>
@@ -6737,26 +6737,26 @@
         <v>8</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J55" s="19">
         <v>1</v>
@@ -6815,26 +6815,26 @@
         <v>8</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J56" s="19">
         <v>1</v>
@@ -6856,7 +6856,7 @@
         <v>L20801055</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q56" s="20" t="str">
         <f t="shared" si="2"/>
@@ -6892,26 +6892,26 @@
         <v>8</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="J57" s="19">
         <v>1</v>
@@ -6970,26 +6970,26 @@
         <v>8</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="J58" s="19">
         <v>0</v>
@@ -7048,26 +7048,26 @@
         <v>8</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" s="19">
         <v>1</v>
@@ -7126,26 +7126,26 @@
         <v>8</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="J60" s="19">
         <v>0</v>
@@ -7204,26 +7204,26 @@
         <v>8</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="J61" s="19">
         <v>1</v>
@@ -7282,26 +7282,26 @@
         <v>8</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="J62" s="19">
         <v>1</v>
@@ -7360,26 +7360,26 @@
         <v>8</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J63" s="19">
         <v>0</v>
@@ -7438,26 +7438,26 @@
         <v>8</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I64" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J64" s="19">
         <v>1</v>
@@ -7516,26 +7516,26 @@
         <v>8</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="J65" s="19">
         <v>1</v>
@@ -7594,26 +7594,26 @@
         <v>8</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J66" s="19">
         <v>0</v>
@@ -7672,26 +7672,26 @@
         <v>8</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J67" s="19">
         <v>1</v>
@@ -7750,26 +7750,26 @@
         <v>8</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J68" s="19">
         <v>1</v>
@@ -7828,26 +7828,26 @@
         <v>8</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="J69" s="19">
         <v>1</v>
@@ -7906,26 +7906,26 @@
         <v>8</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J70" s="19">
         <v>1</v>
@@ -7984,26 +7984,26 @@
         <v>8</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="J71" s="19">
         <v>1</v>
@@ -8062,26 +8062,26 @@
         <v>8</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="J72" s="19">
         <v>1</v>
@@ -8140,26 +8140,26 @@
         <v>8</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J73" s="19">
         <v>0</v>
@@ -8218,26 +8218,26 @@
         <v>8</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="J74" s="19">
         <v>0</v>
@@ -8296,26 +8296,26 @@
         <v>8</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="J75" s="19">
         <v>0</v>
@@ -8374,26 +8374,26 @@
         <v>8</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="J76" s="19">
         <v>1</v>
@@ -8452,26 +8452,26 @@
         <v>8</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="J77" s="19">
         <v>1</v>
@@ -8530,26 +8530,26 @@
         <v>8</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="J78" s="19">
         <v>1</v>
@@ -8608,26 +8608,26 @@
         <v>8</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J79" s="19">
         <v>1</v>
@@ -8686,26 +8686,26 @@
         <v>8</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J80" s="19">
         <v>1</v>
@@ -8764,26 +8764,26 @@
         <v>8</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I81" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J81" s="19">
         <v>1</v>
@@ -8805,7 +8805,7 @@
         <v>L20801080</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q81" s="20" t="str">
         <f t="shared" si="11"/>
@@ -8829,7 +8829,7 @@
         <v>L40801080</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="17" customFormat="1" ht="42.5">
@@ -8837,26 +8837,26 @@
         <v>8</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="J82" s="19">
         <v>0</v>
@@ -8915,26 +8915,26 @@
         <v>8</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="I83" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="J83" s="19">
         <v>1</v>
@@ -8993,26 +8993,26 @@
         <v>8</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="J84" s="19">
         <v>1</v>
@@ -9071,26 +9071,26 @@
         <v>8</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="J85" s="19">
         <v>1</v>
@@ -9149,26 +9149,26 @@
         <v>8</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="J86" s="19">
         <v>0</v>
@@ -9227,26 +9227,26 @@
         <v>8</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J87" s="19">
         <v>1</v>
@@ -9305,26 +9305,26 @@
         <v>8</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I88" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J88" s="19">
         <v>0</v>
@@ -9383,26 +9383,26 @@
         <v>8</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="J89" s="19">
         <v>1</v>
@@ -9461,26 +9461,26 @@
         <v>8</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J90" s="19">
         <v>0</v>
@@ -9539,26 +9539,26 @@
         <v>8</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="J91" s="19">
         <v>0</v>
@@ -9617,26 +9617,26 @@
         <v>8</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="J92" s="19">
         <v>1</v>
@@ -9695,26 +9695,26 @@
         <v>8</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="J93" s="19">
         <v>0</v>
@@ -9773,26 +9773,26 @@
         <v>8</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="J94" s="19">
         <v>1</v>
@@ -9851,26 +9851,26 @@
         <v>8</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="I95" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J95" s="19">
         <v>1</v>
@@ -9929,26 +9929,26 @@
         <v>8</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="J96" s="19">
         <v>1</v>
@@ -10007,26 +10007,26 @@
         <v>8</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J97" s="19">
         <v>1</v>
@@ -10085,26 +10085,26 @@
         <v>8</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="J98" s="19">
         <v>1</v>
@@ -10163,26 +10163,26 @@
         <v>8</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J99" s="19">
         <v>0</v>
@@ -10241,26 +10241,26 @@
         <v>8</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J100" s="19">
         <v>1</v>
@@ -10319,26 +10319,26 @@
         <v>8</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="J101" s="19">
         <v>0</v>
@@ -10397,26 +10397,26 @@
         <v>8</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="J102" s="19">
         <v>1</v>
@@ -10475,26 +10475,26 @@
         <v>8</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J103" s="19">
         <v>0</v>
@@ -10553,26 +10553,26 @@
         <v>8</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J104" s="19">
         <v>1</v>
@@ -10631,26 +10631,26 @@
         <v>8</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G105" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="J105" s="19">
         <v>1</v>
@@ -10709,26 +10709,26 @@
         <v>8</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J106" s="19">
         <v>1</v>
@@ -10787,26 +10787,26 @@
         <v>8</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J107" s="19">
         <v>0</v>
@@ -10865,26 +10865,26 @@
         <v>8</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J108" s="19">
         <v>0</v>
@@ -10943,26 +10943,26 @@
         <v>8</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J109" s="19">
         <v>1</v>
@@ -11021,26 +11021,26 @@
         <v>8</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="J110" s="19">
         <v>0</v>
@@ -11099,26 +11099,26 @@
         <v>8</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="I111" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="J111" s="19">
         <v>1</v>
@@ -11177,26 +11177,26 @@
         <v>8</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H112" s="6" t="s">
+      <c r="I112" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="J112" s="19">
         <v>1</v>
@@ -11255,26 +11255,26 @@
         <v>8</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G113" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="I113" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J113" s="19">
         <v>0</v>
@@ -11333,26 +11333,26 @@
         <v>8</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="J114" s="19">
         <v>0</v>
@@ -11411,26 +11411,26 @@
         <v>8</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="J115" s="19">
         <v>0</v>
@@ -11489,26 +11489,26 @@
         <v>8</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="J116" s="19">
         <v>1</v>
@@ -11567,26 +11567,26 @@
         <v>8</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J117" s="19">
         <v>0</v>
@@ -11616,7 +11616,7 @@
         <v>L30801116</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S117" s="20" t="str">
         <f t="shared" si="13"/>
@@ -11635,7 +11635,7 @@
         <v>L40801116</v>
       </c>
       <c r="W117" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:23" s="17" customFormat="1" ht="28">
@@ -11643,26 +11643,26 @@
         <v>8</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>566</v>
-      </c>
       <c r="I118" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J118" s="19">
         <v>0</v>
@@ -11692,7 +11692,7 @@
         <v>L30801117</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S118" s="20" t="str">
         <f t="shared" si="13"/>
@@ -11720,26 +11720,26 @@
         <v>8</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="J119" s="19">
         <v>0</v>
@@ -11798,26 +11798,26 @@
         <v>8</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J120" s="19">
         <v>0</v>
@@ -11876,26 +11876,26 @@
         <v>8</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G121" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="J121" s="19">
         <v>0</v>
@@ -11954,26 +11954,26 @@
         <v>8</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="J122" s="19">
         <v>0</v>
@@ -12032,26 +12032,26 @@
         <v>8</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="J123" s="19">
         <v>1</v>
@@ -12110,26 +12110,26 @@
         <v>8</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="J124" s="19">
         <v>1</v>
@@ -12188,26 +12188,26 @@
         <v>8</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="J125" s="19">
         <v>1</v>
@@ -12266,26 +12266,26 @@
         <v>8</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="J126" s="19">
         <v>0</v>
@@ -12344,26 +12344,26 @@
         <v>8</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G127" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="J127" s="19">
         <v>0</v>
@@ -12422,26 +12422,26 @@
         <v>8</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="J128" s="19">
         <v>0</v>
@@ -12500,26 +12500,26 @@
         <v>8</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G129" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="J129" s="19">
         <v>1</v>
@@ -12578,26 +12578,26 @@
         <v>8</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="J130" s="19">
         <v>0</v>
@@ -12656,26 +12656,26 @@
         <v>8</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G131" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H131" s="6" t="s">
+      <c r="I131" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="J131" s="19">
         <v>1</v>
@@ -12734,26 +12734,26 @@
         <v>8</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="J132" s="19">
         <v>1</v>
@@ -12812,26 +12812,26 @@
         <v>8</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="J133" s="19">
         <v>1</v>
@@ -12890,26 +12890,26 @@
         <v>8</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="J134" s="19">
         <v>0</v>
@@ -12968,26 +12968,26 @@
         <v>8</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G135" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="J135" s="19">
         <v>1</v>
@@ -13046,26 +13046,26 @@
         <v>8</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G136" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="J136" s="19">
         <v>0</v>
@@ -13124,26 +13124,26 @@
         <v>8</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H137" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="J137" s="19">
         <v>1</v>
